--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2833026.830099757</v>
+        <v>2830769.808190675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.33939653912152</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>127.990722067552</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>67.25025504144566</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>84.11892151122089</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>116.486638501864</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>49.92693022021956</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6210949690526</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.8783469293132</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>148.0466746004095</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.6353666620234</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>52.5331722983239</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>113.5108914069238</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>77.39766350105882</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249704</v>
+        <v>133.220525745333</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249711</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.98576519627128</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2533,13 +2533,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>147.0633545968147</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>73.53720539716808</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>127.31653654799</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>196.6885914280551</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>45.10723554369662</v>
       </c>
       <c r="V31" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.25405350151095</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>194.905953037255</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164174</v>
+        <v>87.87589738164185</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>53.50468551664926</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>101.9592529058106</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797407</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433774</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145483</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124498</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1717.512263598976</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.549746658564</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>990.2840480518139</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>990.2840480518139</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>352.226339726024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>352.226339726024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>183.2265394643564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2557.151793961624</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2557.151793961624</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2557.151793961624</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2557.151793961624</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2557.151793961624</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>2557.151793961624</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>2167.012461985812</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4656,13 +4656,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>677.697741559748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.689018870909</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.689018870909</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1571.689018870909</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1185.900766272665</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>774.9148614830572</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>356.951053381244</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>444.6760255082871</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.7766591279594</v>
+        <v>217.41494016761</v>
       </c>
       <c r="C13" t="n">
-        <v>339.7766591279594</v>
+        <v>217.41494016761</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>217.41494016761</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>217.41494016761</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>217.41494016761</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>217.41494016761</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1621.763314286711</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1332.660447412354</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1077.975959206467</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>788.5587891695069</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>560.5692382714896</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.7766591279594</v>
+        <v>399.0634049978497</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1002.806306216376</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1453.840519464784</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.7144041584435</v>
+        <v>528.0379765536113</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>528.0379765536113</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>377.9213371412756</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>377.9213371412756</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5440,19 +5440,19 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927021</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O16" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
@@ -5470,16 +5470,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208118</v>
+        <v>999.1036114208117</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838512</v>
+        <v>709.686441383851</v>
       </c>
       <c r="X16" t="n">
-        <v>631.5069833019736</v>
+        <v>709.686441383851</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.7144041584435</v>
+        <v>709.686441383851</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838514</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X19" t="n">
-        <v>481.696890485834</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.904311342304</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>323.5285488293691</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192154</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425384</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425384</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425384</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425384</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>154.132514444628</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>931.4530568143256</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>703.4635059163082</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>482.6709267727781</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,10 +5972,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,52 +5987,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.983578264599</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>414.6138567886366</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>635.4064359321667</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>414.6138567886366</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,16 +6397,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
         <v>1674.827124689058</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>1163.643339221623</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X28" t="n">
-        <v>964.9679943448</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,40 +6467,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>414.6138567886368</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
         <v>95.56103444839442</v>
@@ -6628,7 +6628,7 @@
         <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6652,19 +6652,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1407.497645073032</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1152.813156867145</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>863.3959868301843</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>635.4064359321669</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>414.6138567886368</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1067.865561890629</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6777,22 +6777,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>540.4807149410336</v>
+        <v>425.7583423057192</v>
       </c>
       <c r="C34" t="n">
-        <v>540.4807149410336</v>
+        <v>425.7583423057192</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>275.6417028933835</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>275.6417028933835</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6859,7 +6859,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1567.782881893898</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1278.680015019542</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1278.680015019542</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>989.2628449825811</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X34" t="n">
-        <v>761.2732940845638</v>
+        <v>646.5509214492494</v>
       </c>
       <c r="Y34" t="n">
-        <v>540.4807149410336</v>
+        <v>425.7583423057192</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7053,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.3840574125617</v>
+        <v>412.4800077211513</v>
       </c>
       <c r="C37" t="n">
-        <v>241.3840574125617</v>
+        <v>244.6107493269872</v>
       </c>
       <c r="D37" t="n">
-        <v>241.3840574125617</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125617</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308517</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152496</v>
+        <v>346.7622353152492</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992673</v>
+        <v>664.3677264992667</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280147</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640716</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1464.626824743985</v>
+        <v>1464.626824743984</v>
       </c>
       <c r="U37" t="n">
-        <v>1410.581687858481</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1156.964124186337</v>
+        <v>922.9733187312263</v>
       </c>
       <c r="W37" t="n">
-        <v>868.6138786831198</v>
+        <v>922.9733187312263</v>
       </c>
       <c r="X37" t="n">
-        <v>641.6912523188455</v>
+        <v>696.0506923669518</v>
       </c>
       <c r="Y37" t="n">
-        <v>421.9655977090584</v>
+        <v>593.0615480176481</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215033</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416695</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D40" t="n">
-        <v>564.361611377407</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430889</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,10 +7336,10 @@
         <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
         <v>1579.322996860149</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123955</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829557</v>
@@ -7369,13 +7369,13 @@
         <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036697</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2816.030799058633</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7442,19 +7442,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7503,37 +7503,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.898150743089</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932519</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160441</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819752</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.83252492416</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844494</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,37 +7804,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
         <v>1725.799256195774</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>161.8544041422902</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,19 +8936,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>338.5992815305724</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>39.48321557772653</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>231.5010718068653</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>5.284192235662204</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10115,25 +10115,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>341.5962138876753</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>285.0508825989993</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>76.45227440777376</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>60.01894884692092</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>314.5564971416986</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476831</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561016</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>130.0020851999088</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>24.11964825229739</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>167.0157769778453</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>31.91015661600749</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>148.3119918879784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696685</v>
+        <v>46.61145443660435</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>108.040043062757</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>152.1724499918691</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>21.29893647022233</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>29.02106396098202</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>241.1046026619163</v>
       </c>
       <c r="V31" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.1669945214203</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.64299623891421</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143249</v>
+        <v>95.29616512143261</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>231.6508974005581</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5691451578787</v>
       </c>
     </row>
     <row r="38">
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.897504706808832e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747779</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772385.122415398</v>
+        <v>772385.1224153979</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797345.2597605791</v>
+        <v>797345.2597605792</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191727</v>
       </c>
       <c r="G2" t="n">
+        <v>635330.8590191732</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="I2" t="n">
         <v>635330.859019173</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="I2" t="n">
-        <v>635330.8590191728</v>
       </c>
       <c r="J2" t="n">
         <v>635330.8590191727</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191732</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="M2" t="n">
-        <v>635814.3528639056</v>
+        <v>635814.3528639062</v>
       </c>
       <c r="N2" t="n">
         <v>656833.4158914272</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.051041217034983e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414952</v>
+        <v>36735.1050641495</v>
       </c>
       <c r="O3" t="n">
         <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918992</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918989</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811461</v>
+        <v>18496.05294811455</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="H5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436556</v>
+        <v>-199342.228243655</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.650970889</v>
+        <v>390625.6509708889</v>
       </c>
       <c r="D6" t="n">
-        <v>390625.6509708891</v>
+        <v>390625.6509708894</v>
       </c>
       <c r="E6" t="n">
-        <v>-206578.5655471375</v>
+        <v>-206645.7610373633</v>
       </c>
       <c r="F6" t="n">
-        <v>520798.8484462692</v>
+        <v>520731.6529560436</v>
       </c>
       <c r="G6" t="n">
-        <v>520798.8484462694</v>
+        <v>520731.6529560438</v>
       </c>
       <c r="H6" t="n">
-        <v>520798.8484462693</v>
+        <v>520731.6529560435</v>
       </c>
       <c r="I6" t="n">
-        <v>520798.8484462692</v>
+        <v>520731.6529560436</v>
       </c>
       <c r="J6" t="n">
-        <v>344375.6292536762</v>
+        <v>344308.4337634502</v>
       </c>
       <c r="K6" t="n">
-        <v>520798.8484462691</v>
+        <v>520731.6529560438</v>
       </c>
       <c r="L6" t="n">
-        <v>520798.8484462693</v>
+        <v>520731.6529560434</v>
       </c>
       <c r="M6" t="n">
-        <v>390358.664266567</v>
+        <v>390292.9796946069</v>
       </c>
       <c r="N6" t="n">
         <v>486159.9865157666</v>
       </c>
       <c r="O6" t="n">
-        <v>522895.0915799155</v>
+        <v>522895.0915799153</v>
       </c>
       <c r="P6" t="n">
-        <v>522895.0915799159</v>
+        <v>522895.0915799158</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.813801521293729e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405633</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018689</v>
+        <v>45.91888133018708</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.813801521293729e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.5366492025899</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>28.18016677424313</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>157.7848504166386</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>90.29679129775062</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>232.7543302155491</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>117.3198908784083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753841</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>91.85549473416739</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>175.8760981639476</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030472</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.523608934806495e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.961275751862559e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.031462609625592e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405594</v>
+        <v>1.056255288405468</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>352.6414051110027</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>846.6522824187914</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35820,10 +35820,10 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>854.0890375411587</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306618</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,10 +36051,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>230.270216546439</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>739.5540726950843</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36601,16 +36601,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>404.0461784550341</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>880.517329717902</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>622.2421691543998</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>584.5052752959929</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147185</v>
+        <v>46.63467190147169</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327252</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818894</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.013326433516</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629925</v>
+        <v>79.45049382629912</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>568.0719497351399</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37719,7 +37719,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>853.4776129719254</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359025</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37938,7 +37938,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115023</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>682.3039206128201</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
